--- a/static/Holding_Breakup/NAZARA.xlsx
+++ b/static/Holding_Breakup/NAZARA.xlsx
@@ -34,13 +34,13 @@
     <t>Number of Institutions Holding Shares</t>
   </si>
   <si>
-    <t>60.74%</t>
-  </si>
-  <si>
-    <t>9.81%</t>
-  </si>
-  <si>
-    <t>24.98%</t>
+    <t>57.91%</t>
+  </si>
+  <si>
+    <t>7.54%</t>
+  </si>
+  <si>
+    <t>17.91%</t>
   </si>
   <si>
     <t>24</t>
